--- a/data/trans_dic/P17_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con salud mental autopercibida regular o mala</t>
+          <t>Población con salud mental autopercibida regular o mala (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>12,79%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>9,36%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13,27%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>25,71%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>8,72%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>11,64%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>13,82%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17,34%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21,98%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>18,81%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>7,04%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>8,05%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>12,36%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7,06%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>8,51%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>13,22%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>15,08%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>15,33%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>13,88%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,94; 18,21</t>
+          <t>8,43; 18,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 10,79</t>
+          <t>2,39; 10,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,23</t>
+          <t>1,85; 9,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 17,6</t>
+          <t>7,18; 20,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,45; 15,91</t>
+          <t>6,96; 21,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,69; 32,16</t>
+          <t>4,49; 15,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,11; 14,04</t>
+          <t>7,3; 21,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,6; 17,77</t>
+          <t>19,07; 32,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,33; 20,28</t>
+          <t>5,22; 13,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,32; 29,97</t>
+          <t>7,56; 17,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,92; 23,16</t>
+          <t>9,28; 19,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,65; 10,43</t>
+          <t>11,75; 25,15</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,43; 11,33</t>
+          <t>15,17; 30,42</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>9,06; 16,7</t>
+          <t>9,52; 21,99</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>11,1; 20,66</t>
+          <t>14,95; 23,23</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>4,56; 10,47</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5,89; 12,54</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>9,72; 17,88</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>11,06; 20,85</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>10,75; 20,75</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>9,44; 19,51</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>15,17%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>5,29%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15,21%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>20,13%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>7,6%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>10,88%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>10,99%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15,7%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15,83%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>11,33%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>17,12%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>18,18%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>8,95%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>9,74%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>11,36%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>8,22%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>9,11%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>9,59%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>11,67%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>15,48%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>8,23%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>16,14%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,54; 28,17</t>
+          <t>10,46; 26,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 22,69</t>
+          <t>5,28; 23,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 13,54</t>
+          <t>4,81; 12,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 18,93</t>
+          <t>4,16; 18,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 11,23</t>
+          <t>7,97; 29,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,33; 26,22</t>
+          <t>2,35; 10,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 12,54</t>
+          <t>8,86; 22,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,23; 15,4</t>
+          <t>15,42; 25,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,36; 20,04</t>
+          <t>4,21; 11,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,74; 16,8</t>
+          <t>7,26; 15,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,96; 24,5</t>
+          <t>11,25; 21,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 15,66</t>
+          <t>11,18; 21,93</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 12,7</t>
+          <t>6,98; 16,71</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,35; 16,51</t>
+          <t>11,83; 23,47</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 12,12</t>
+          <t>13,91; 23,32</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>5,77; 15,39</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>6,89; 12,72</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>8,48; 16,87</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>11,19; 24,17</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>5,65; 12,07</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>12,1; 21,16</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>8,33%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>14,37%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16,4%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>20,64%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>11,46%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>15,68%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>15,85%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16,5%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16,86%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>17,1%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>17,53%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>17,09%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>10,73%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>13,07%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>13,31%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>9,49%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>12,75%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>13,09%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>12,7%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
         <is>
           <t>15,66%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>16,94%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,51; 17,81</t>
+          <t>10,07; 18,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,3; 21,86</t>
+          <t>4,37; 10,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 15,8</t>
+          <t>6,2; 15,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,87; 14,61</t>
+          <t>6,42; 13,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,25; 19,98</t>
+          <t>5,31; 12,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,69; 25,67</t>
+          <t>10,2; 19,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 15,51</t>
+          <t>11,33; 22,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,0; 19,5</t>
+          <t>16,25; 25,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,82; 19,96</t>
+          <t>8,15; 15,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,53; 22,14</t>
+          <t>12,39; 20,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,28; 20,28</t>
+          <t>12,97; 20,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,14; 16,6</t>
+          <t>12,86; 21,62</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>10,66; 16,45</t>
+          <t>12,88; 22,56</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>10,86; 16,04</t>
+          <t>12,53; 22,75</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>12,68; 19,47</t>
+          <t>14,07; 20,18</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>7,29; 12,19</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>10,13; 15,87</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>10,49; 15,74</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>10,0; 15,86</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>12,69; 19,9</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>13,63; 20,98</t>
         </is>
       </c>
     </row>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>19,32%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>15,38%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22,08%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>22,45%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>15,35%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>21,27%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>21,39%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>21,36%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>23,87%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>21,42%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>17,39%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>10,86%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>15,23%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>18,17%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>11,08%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>15,29%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>18,12%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>20,34%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>19,39%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>21,76%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,44; 15,81</t>
+          <t>8,43; 16,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 9,6</t>
+          <t>3,66; 9,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,13; 12,55</t>
+          <t>5,91; 12,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,92; 20,16</t>
+          <t>11,26; 19,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,88; 21,35</t>
+          <t>14,13; 27,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,08; 26,95</t>
+          <t>10,93; 20,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,42; 20,76</t>
+          <t>16,82; 28,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,98; 26,25</t>
+          <t>18,24; 27,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,51; 25,81</t>
+          <t>11,91; 20,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,81; 29,72</t>
+          <t>16,72; 25,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,4; 20,39</t>
+          <t>17,46; 25,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,44; 13,78</t>
+          <t>16,84; 25,63</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>12,63; 18,11</t>
+          <t>18,35; 30,16</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>15,39; 21,24</t>
+          <t>16,73; 27,13</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>15,76; 23,88</t>
+          <t>14,81; 20,52</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>8,23; 13,46</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>12,77; 18,2</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>15,25; 21,36</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>16,96; 25,21</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>16,35; 23,79</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>18,25; 25,77</t>
         </is>
       </c>
     </row>
@@ -1365,72 +1654,102 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>10,6%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>19,48%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>22,11%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>18,76%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>22,44%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22,18%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>31,02%</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>24,69%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>16,16%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>10,08%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>14,21%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>16,58%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>9,85%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>14,47%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>16,66%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
         <is>
           <t>25,52%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>23,73%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,63; 14,61</t>
+          <t>7,22; 14,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 10,17</t>
+          <t>3,59; 10,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,88; 13,36</t>
+          <t>6,94; 14,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,33; 14,73</t>
+          <t>7,29; 15,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,71; 26,34</t>
+          <t>6,77; 16,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,3; 28,17</t>
+          <t>13,91; 25,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,23; 19,24</t>
+          <t>16,89; 29,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,98; 24,42</t>
+          <t>16,63; 27,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,17; 27,77</t>
+          <t>8,68; 18,02</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,05; 37,85</t>
+          <t>13,79; 23,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,0; 19,74</t>
+          <t>17,76; 28,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 13,91</t>
+          <t>16,37; 28,24</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>11,29; 17,57</t>
+          <t>24,66; 37,46</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>13,58; 20,14</t>
+          <t>19,06; 30,85</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>21,48; 30,14</t>
+          <t>13,07; 19,85</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>7,31; 13,25</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>11,75; 17,81</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>13,92; 20,18</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>12,85; 20,84</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>21,74; 29,98</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>19,73; 28,32</t>
         </is>
       </c>
     </row>
@@ -1535,72 +1884,102 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>12,34%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14,51%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>26,83%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>21,47%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>19,7%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
+          <t>20,28%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>26,68%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>22,78%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
           <t>21,78%</t>
         </is>
       </c>
-      <c r="M14" s="2" t="inlineStr">
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>28,78%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>21,21%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>18,31%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>19,04%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>23,36%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>18,48%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>19,41%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>22,45%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>16,83%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
         <is>
           <t>17,78%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>22,81%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,01; 19,46</t>
+          <t>9,57; 19,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,01; 23,67</t>
+          <t>9,66; 22,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,14; 25,6</t>
+          <t>12,33; 24,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,45; 23,6</t>
+          <t>11,72; 24,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,8; 19,54</t>
+          <t>4,38; 16,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,94; 32,47</t>
+          <t>7,37; 19,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,85; 27,53</t>
+          <t>8,77; 20,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,21; 25,11</t>
+          <t>21,92; 32,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,33; 42,55</t>
+          <t>15,81; 28,34</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,79; 30,78</t>
+          <t>15,31; 25,48</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,66; 24,77</t>
+          <t>19,99; 35,14</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,35; 23,64</t>
+          <t>16,12; 32,78</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>15,09; 23,19</t>
+          <t>15,03; 31,7</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>19,14; 33,63</t>
+          <t>22,03; 36,15</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>12,99; 23,36</t>
+          <t>17,32; 25,01</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>14,1; 23,39</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>15,59; 23,92</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>18,0; 28,56</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>12,11; 23,39</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>12,92; 24,19</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>18,14; 28,3</t>
         </is>
       </c>
     </row>
@@ -1700,77 +2109,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>12,64%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>12,81%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17,48%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>23,02%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>13,6%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>16,64%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>16,96%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>19,7%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>19,57%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>21,19%</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>21,25%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>18,16%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>11,24%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>13,42%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>15,97%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>11,07%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>13,51%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>15,95%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>16,18%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>17,01%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>19,37%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,18; 15,36</t>
+          <t>11,14; 15,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,06; 12,22</t>
+          <t>6,6; 10,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,51; 11,98</t>
+          <t>8,29; 12,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,05; 14,34</t>
+          <t>10,2; 14,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,98; 15,07</t>
+          <t>10,29; 15,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,87; 25,33</t>
+          <t>10,81; 15,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,73; 15,71</t>
+          <t>15,03; 20,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,86; 18,6</t>
+          <t>21,01; 25,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,46; 22,88</t>
+          <t>11,89; 15,77</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,64; 23,97</t>
+          <t>15,17; 18,82</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>16,73; 19,59</t>
+          <t>17,55; 22,17</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,96; 13,13</t>
+          <t>16,94; 22,23</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>12,15; 14,79</t>
+          <t>18,77; 24,25</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>14,64; 18,11</t>
+          <t>18,95; 23,65</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>15,39; 18,76</t>
+          <t>16,75; 19,86</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>9,7; 12,52</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>12,23; 14,85</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>14,63; 17,58</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>14,46; 18,24</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>15,46; 18,88</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>17,66; 21,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud mental autopercibida regular o mala (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>64005</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>26645</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>24275</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>63782</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>60261</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3901</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5847</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>119011</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>41672</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>64147</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>70716</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>82760</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>8221</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5618</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>183016</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>68318</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>88422</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>134498</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>143021</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>12122</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>11465</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>43001; 95189</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11908; 53634</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9688; 49922</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>36293; 103581</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>32770; 100514</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1871; 6479</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3215; 9672</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>88256; 150613</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24449; 64677</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>38943; 91265</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>47507; 101958</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>56081; 120046</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5674; 11377</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3670; 8477</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>145516; 226011</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>44067; 101222</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>61172; 130317</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>98927; 181938</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>104908; 197782</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>8503; 16409</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>7803; 16116</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>91837</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>57447</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>46849</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>48548</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>87967</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2636</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7453</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>104460</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>39642</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>55839</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>81238</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>79963</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5349</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>7878</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>196297</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>97089</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>102688</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>129785</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>167929</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>7985</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>15331</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>58691; 150161</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>28833; 127194</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>27094; 72916</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>24719; 110207</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>46227; 169514</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1174; 5379</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4340; 11213</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>80014; 134720</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21839; 60624</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>36859; 79448</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>58226; 111430</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>56484; 110794</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3293; 7887</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5442; 10800</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>150223; 251824</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>61497; 163956</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>73823; 136238</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>94275; 187604</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>121443; 262216</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>5481; 11715</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>11500; 20108</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>90876</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>49968</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>64281</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>64628</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>56543</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8651</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9966</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>143280</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>82595</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>113593</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>117159</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>120255</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>9218</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>9618</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>234156</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>132564</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>177874</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>181787</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>176798</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>17869</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>19584</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>68049; 123141</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29900; 74429</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>42099; 102200</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>43555; 93789</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>36013; 84528</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6142; 11958</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6887; 13640</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>112834; 173825</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>58064; 112060</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>88812; 144724</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>92051; 147551</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>91762; 154217</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6943; 12163</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6872; 12479</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>192711; 276544</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>101730; 170202</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>141392; 221464</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>145630; 218527</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>139152; 220791</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>14477; 22707</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>15762; 24253</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>75574</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>39765</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>57138</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>94276</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>127179</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8961</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12516</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>157481</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>107929</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>143655</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>140703</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>141283</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>12460</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>11464</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>233055</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>147695</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>200793</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>234979</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>268462</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>21422</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>23980</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>53847; 102967</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23694; 61033</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>37973; 80106</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>71989; 126953</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>93015; 179345</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6371; 12004</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9531; 16272</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>127944; 193736</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>81638; 140711</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>112244; 171585</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>114863; 169523</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>111376; 169503</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>9580; 15742</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>8952; 14515</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>198407; 274964</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>109755; 179352</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>167743; 239024</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>197760; 277080</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>223819; 332674</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>18063; 26275</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>20104; 28399</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>52526</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>32271</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>51129</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>52391</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>52496</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8666</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10252</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>111116</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>66474</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>93998</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>114604</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>114638</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>15130</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>11567</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>163643</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>98745</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>145127</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>166995</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>167133</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>23796</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>21819</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36803; 73780</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17696; 51354</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>34848; 71409</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>35857; 74946</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>33494; 79806</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6189; 11513</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7622; 13126</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>83567; 138497</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>44168; 91728</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>69097; 118462</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>90706; 143158</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>84623; 145969</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>12025; 18272</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>8930; 14453</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>132336; 200959</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>73255; 132756</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>117856; 178699</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>139583; 202322</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>130071; 210939</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>20279; 27963</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>18144; 26044</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>73943</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>78515</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>96823</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>90247</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>51008</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5737</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6653</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>192986</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>154198</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>138611</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>184783</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>167339</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>13777</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>18328</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>266929</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>232713</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>235433</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>275030</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>218347</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>19515</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>24981</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>51578; 107448</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>52665; 123783</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>65241; 132127</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>62370; 128757</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>24648; 91409</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3427; 9131</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4020; 9520</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>157643; 233301</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>112892; 202326</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>104627; 174172</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>138494; 243394</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>118431; 240767</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>9504; 20053</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>14024; 23016</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>218018; 314782</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>177495; 294520</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>189005; 290077</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>220459; 349852</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>157104; 303454</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>14183; 26553</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>19865; 30990</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>538.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>414.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>478.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>405.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>448761</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>284612</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>340494</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>413872</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>435453</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>38553</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>52687</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>828335</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>492511</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>609843</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>709202</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>706237</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>64155</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>64473</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1277096</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>777123</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>950338</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>1123074</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>1141689</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>102709</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>117160</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>382613; 523882</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>225473; 363585</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>285154; 415574</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>351005; 489686</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>354649; 540208</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>32541; 45189</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>45321; 60555</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>756097; 904312</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>429254; 569179</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>545510; 676689</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>631963; 798244</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>611210; 802087</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>56809; 73423</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>57504; 71777</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1177826; 1396770</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>681448; 878993</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>860738; 1044465</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>1030485; 1237949</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>1019794; 1286506</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>93343; 114001</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>106838; 129313</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>